--- a/www/ig/fhir/annuaire/StructureDefinition-as-practitioner.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10358" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10358" uniqueCount="917">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1594,9 +1594,13 @@
     <t>Practitioner.identifier:idNatPs.type</t>
   </si>
   <si>
+    <t>Type d’identifiant national de la personne physique (typeIdNat_PP),
+Les codes ADELI, RPPS et IDNPS proviennent du system  https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203 ; Les codes 1, 3, 4, 5, 6 proviennent du system : https://mos.esante.gouv.fr/NOS/TRE_G08-TypeIdentifiantPersonne/FHIR/TRE-G08-TypeIdentifiantPersonne</t>
+  </si>
+  <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="IDNPS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1656,7 +1660,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="RPPS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1665,7 +1669,7 @@
     <t>Practitioner.identifier:rpps.system</t>
   </si>
   <si>
-    <t>http://rpps.esante.gouv.fr</t>
+    <t>https://rpps.esante.gouv.fr</t>
   </si>
   <si>
     <t>Practitioner.identifier:rpps.value</t>
@@ -1700,7 +1704,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="ADELI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1709,7 +1713,7 @@
     <t>Practitioner.identifier:adeli.system</t>
   </si>
   <si>
-    <t>http://adeli.esante.gouv.fr</t>
+    <t>https://adeli.esante.gouv.fr</t>
   </si>
   <si>
     <t>Practitioner.identifier:adeli.value</t>
@@ -18363,7 +18367,7 @@
         <v>243</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>402</v>
+        <v>510</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>403</v>
@@ -18382,7 +18386,7 @@
         <v>83</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>83</v>
@@ -18400,10 +18404,10 @@
         <v>167</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>83</v>
@@ -18468,7 +18472,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>467</v>
@@ -18500,7 +18504,7 @@
         <v>468</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>470</v>
@@ -18516,7 +18520,7 @@
         <v>83</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>472</v>
@@ -18602,7 +18606,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>477</v>
@@ -18631,7 +18635,7 @@
         <v>114</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>479</v>
@@ -18734,7 +18738,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>486</v>
@@ -18864,7 +18868,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>493</v>
@@ -18996,13 +19000,13 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>379</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>83</v>
@@ -19027,7 +19031,7 @@
         <v>380</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>382</v>
@@ -19130,7 +19134,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>390</v>
@@ -19260,7 +19264,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>391</v>
@@ -19392,7 +19396,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>392</v>
@@ -19526,7 +19530,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>401</v>
@@ -19555,7 +19559,7 @@
         <v>243</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>403</v>
@@ -19574,7 +19578,7 @@
         <v>83</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>83</v>
@@ -19592,10 +19596,10 @@
         <v>167</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>83</v>
@@ -19660,7 +19664,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>467</v>
@@ -19692,7 +19696,7 @@
         <v>468</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N126" t="s" s="2">
         <v>470</v>
@@ -19708,7 +19712,7 @@
         <v>83</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>472</v>
@@ -19794,7 +19798,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>477</v>
@@ -19926,7 +19930,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>486</v>
@@ -20056,7 +20060,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>493</v>
@@ -20188,13 +20192,13 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>379</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>83</v>
@@ -20219,7 +20223,7 @@
         <v>380</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>382</v>
@@ -20322,7 +20326,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>390</v>
@@ -20452,7 +20456,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>391</v>
@@ -20584,7 +20588,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>392</v>
@@ -20718,7 +20722,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>401</v>
@@ -20747,7 +20751,7 @@
         <v>243</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>403</v>
@@ -20766,7 +20770,7 @@
         <v>83</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>83</v>
@@ -20784,10 +20788,10 @@
         <v>167</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>83</v>
@@ -20852,7 +20856,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>467</v>
@@ -20884,7 +20888,7 @@
         <v>468</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>470</v>
@@ -20900,7 +20904,7 @@
         <v>83</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>472</v>
@@ -20986,7 +20990,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>477</v>
@@ -21118,7 +21122,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>486</v>
@@ -21248,7 +21252,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>493</v>
@@ -21380,10 +21384,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -21409,67 +21413,67 @@
         <v>311</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="P139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q139" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF139" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q139" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>84</v>
@@ -21505,21 +21509,21 @@
         <v>83</v>
       </c>
       <c r="AR139" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AS139" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AT139" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -21542,19 +21546,19 @@
         <v>83</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>83</v>
@@ -21603,7 +21607,7 @@
         <v>83</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>84</v>
@@ -21636,13 +21640,13 @@
         <v>83</v>
       </c>
       <c r="AQ140" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AR140" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AS140" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AT140" t="s" s="2">
         <v>83</v>
@@ -21650,10 +21654,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -21780,10 +21784,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -21912,13 +21916,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="B143" t="s" s="2">
-        <v>565</v>
-      </c>
       <c r="C143" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>83</v>
@@ -21940,13 +21944,13 @@
         <v>83</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -22044,10 +22048,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -22073,16 +22077,16 @@
         <v>185</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>83</v>
@@ -22111,7 +22115,7 @@
       </c>
       <c r="Y144" s="2"/>
       <c r="Z144" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>83</v>
@@ -22129,7 +22133,7 @@
         <v>83</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>84</v>
@@ -22162,13 +22166,13 @@
         <v>83</v>
       </c>
       <c r="AQ144" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AR144" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AS144" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AT144" t="s" s="2">
         <v>83</v>
@@ -22176,10 +22180,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -22205,16 +22209,16 @@
         <v>114</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>83</v>
@@ -22263,7 +22267,7 @@
         <v>83</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>84</v>
@@ -22296,10 +22300,10 @@
         <v>83</v>
       </c>
       <c r="AQ145" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AR145" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AS145" t="s" s="2">
         <v>83</v>
@@ -22310,14 +22314,14 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -22339,13 +22343,13 @@
         <v>114</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -22395,7 +22399,7 @@
         <v>83</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>84</v>
@@ -22413,7 +22417,7 @@
         <v>83</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>83</v>
@@ -22428,13 +22432,13 @@
         <v>83</v>
       </c>
       <c r="AQ146" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AR146" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AS146" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AT146" t="s" s="2">
         <v>83</v>
@@ -22442,14 +22446,14 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
@@ -22471,13 +22475,13 @@
         <v>114</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -22527,7 +22531,7 @@
         <v>83</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>84</v>
@@ -22545,7 +22549,7 @@
         <v>83</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>83</v>
@@ -22560,13 +22564,13 @@
         <v>83</v>
       </c>
       <c r="AQ147" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AR147" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AS147" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AT147" t="s" s="2">
         <v>83</v>
@@ -22574,10 +22578,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -22603,10 +22607,10 @@
         <v>114</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -22636,10 +22640,10 @@
         <v>167</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>83</v>
@@ -22657,7 +22661,7 @@
         <v>83</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>84</v>
@@ -22690,13 +22694,13 @@
         <v>83</v>
       </c>
       <c r="AQ148" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AR148" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AS148" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AT148" t="s" s="2">
         <v>83</v>
@@ -22704,10 +22708,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -22733,10 +22737,10 @@
         <v>114</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -22766,10 +22770,10 @@
         <v>167</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>83</v>
@@ -22787,7 +22791,7 @@
         <v>83</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>84</v>
@@ -22805,7 +22809,7 @@
         <v>83</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>83</v>
@@ -22820,10 +22824,10 @@
         <v>83</v>
       </c>
       <c r="AQ149" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AR149" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AS149" t="s" s="2">
         <v>83</v>
@@ -22834,10 +22838,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -22863,14 +22867,14 @@
         <v>263</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>83</v>
@@ -22919,7 +22923,7 @@
         <v>83</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>84</v>
@@ -22952,10 +22956,10 @@
         <v>83</v>
       </c>
       <c r="AQ150" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AR150" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AS150" t="s" s="2">
         <v>492</v>
@@ -22966,10 +22970,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -22992,19 +22996,19 @@
         <v>83</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>83</v>
@@ -23041,7 +23045,7 @@
         <v>83</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AC151" s="2"/>
       <c r="AD151" t="s" s="2">
@@ -23051,7 +23055,7 @@
         <v>127</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>84</v>
@@ -23063,7 +23067,7 @@
         <v>218</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>83</v>
@@ -23078,19 +23082,19 @@
         <v>83</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ151" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AR151" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AS151" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AT151" t="s" s="2">
         <v>83</v>
@@ -23098,10 +23102,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -23228,10 +23232,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -23360,13 +23364,13 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B154" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="B154" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="C154" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>83</v>
@@ -23388,13 +23392,13 @@
         <v>83</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -23492,10 +23496,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -23521,10 +23525,10 @@
         <v>185</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -23554,10 +23558,10 @@
         <v>246</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>83</v>
@@ -23575,7 +23579,7 @@
         <v>83</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>84</v>
@@ -23584,7 +23588,7 @@
         <v>100</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>112</v>
@@ -23608,13 +23612,13 @@
         <v>83</v>
       </c>
       <c r="AQ155" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AR155" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AS155" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AT155" t="s" s="2">
         <v>83</v>
@@ -23622,10 +23626,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -23651,16 +23655,16 @@
         <v>114</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>83</v>
@@ -23709,7 +23713,7 @@
         <v>83</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>84</v>
@@ -23742,10 +23746,10 @@
         <v>83</v>
       </c>
       <c r="AQ156" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AR156" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AS156" t="s" s="2">
         <v>485</v>
@@ -23756,10 +23760,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -23785,16 +23789,16 @@
         <v>185</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>83</v>
@@ -23822,10 +23826,10 @@
         <v>246</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>83</v>
@@ -23843,7 +23847,7 @@
         <v>83</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>84</v>
@@ -23876,13 +23880,13 @@
         <v>83</v>
       </c>
       <c r="AQ157" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR157" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AS157" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AT157" t="s" s="2">
         <v>83</v>
@@ -23890,10 +23894,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -23916,16 +23920,16 @@
         <v>101</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -23975,7 +23979,7 @@
         <v>83</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>84</v>
@@ -24022,10 +24026,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -24051,10 +24055,10 @@
         <v>263</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -24105,7 +24109,7 @@
         <v>83</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>84</v>
@@ -24141,7 +24145,7 @@
         <v>208</v>
       </c>
       <c r="AR159" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AS159" t="s" s="2">
         <v>492</v>
@@ -24152,13 +24156,13 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>83</v>
@@ -24180,19 +24184,19 @@
         <v>83</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>83</v>
@@ -24241,7 +24245,7 @@
         <v>83</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>84</v>
@@ -24253,13 +24257,13 @@
         <v>218</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>83</v>
@@ -24274,13 +24278,13 @@
         <v>83</v>
       </c>
       <c r="AQ160" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AR160" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AS160" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AT160" t="s" s="2">
         <v>83</v>
@@ -24288,10 +24292,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -24314,19 +24318,19 @@
         <v>83</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>83</v>
@@ -24375,7 +24379,7 @@
         <v>83</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>84</v>
@@ -24402,19 +24406,19 @@
         <v>83</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ161" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AR161" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AS161" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AT161" t="s" s="2">
         <v>83</v>
@@ -24422,10 +24426,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -24451,14 +24455,14 @@
         <v>185</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>83</v>
@@ -24486,10 +24490,10 @@
         <v>246</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>83</v>
@@ -24507,7 +24511,7 @@
         <v>83</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>84</v>
@@ -24540,13 +24544,13 @@
         <v>83</v>
       </c>
       <c r="AQ162" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AR162" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AS162" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AT162" t="s" s="2">
         <v>83</v>
@@ -24554,10 +24558,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -24580,17 +24584,17 @@
         <v>101</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>83</v>
@@ -24639,7 +24643,7 @@
         <v>83</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>84</v>
@@ -24672,13 +24676,13 @@
         <v>83</v>
       </c>
       <c r="AQ163" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AR163" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AS163" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AT163" t="s" s="2">
         <v>83</v>
@@ -24686,10 +24690,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -24712,17 +24716,17 @@
         <v>83</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>83</v>
@@ -24771,7 +24775,7 @@
         <v>83</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>84</v>
@@ -24807,10 +24811,10 @@
         <v>83</v>
       </c>
       <c r="AR164" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AS164" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AT164" t="s" s="2">
         <v>83</v>
@@ -24818,10 +24822,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -24844,13 +24848,13 @@
         <v>83</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -24889,7 +24893,7 @@
         <v>83</v>
       </c>
       <c r="AB165" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AC165" s="2"/>
       <c r="AD165" t="s" s="2">
@@ -24899,7 +24903,7 @@
         <v>127</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>84</v>
@@ -24932,13 +24936,13 @@
         <v>83</v>
       </c>
       <c r="AQ165" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AR165" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AS165" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AT165" t="s" s="2">
         <v>83</v>
@@ -24946,10 +24950,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -25076,10 +25080,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -25208,14 +25212,14 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
@@ -25237,10 +25241,10 @@
         <v>121</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>124</v>
@@ -25295,7 +25299,7 @@
         <v>83</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>84</v>
@@ -25342,10 +25346,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -25371,14 +25375,14 @@
         <v>380</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>83</v>
@@ -25427,7 +25431,7 @@
         <v>83</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>84</v>
@@ -25451,7 +25455,7 @@
         <v>83</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>83</v>
@@ -25463,7 +25467,7 @@
         <v>83</v>
       </c>
       <c r="AR169" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AS169" t="s" s="2">
         <v>83</v>
@@ -25474,10 +25478,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -25503,10 +25507,10 @@
         <v>243</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -25537,7 +25541,7 @@
       </c>
       <c r="Y170" s="2"/>
       <c r="Z170" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>83</v>
@@ -25555,7 +25559,7 @@
         <v>83</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>100</v>
@@ -25579,7 +25583,7 @@
         <v>83</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>83</v>
@@ -25591,10 +25595,10 @@
         <v>83</v>
       </c>
       <c r="AR170" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AS170" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AT170" t="s" s="2">
         <v>83</v>
@@ -25602,10 +25606,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -25631,14 +25635,14 @@
         <v>263</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>83</v>
@@ -25687,7 +25691,7 @@
         <v>83</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>84</v>
@@ -25723,10 +25727,10 @@
         <v>83</v>
       </c>
       <c r="AR171" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AS171" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AT171" t="s" s="2">
         <v>83</v>
@@ -25734,10 +25738,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -25763,10 +25767,10 @@
         <v>494</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -25817,7 +25821,7 @@
         <v>83</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>84</v>
@@ -25853,7 +25857,7 @@
         <v>83</v>
       </c>
       <c r="AR172" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AS172" t="s" s="2">
         <v>83</v>
@@ -25864,13 +25868,13 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>83</v>
@@ -25892,13 +25896,13 @@
         <v>83</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -25949,7 +25953,7 @@
         <v>83</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>84</v>
@@ -25973,7 +25977,7 @@
         <v>83</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>83</v>
@@ -25982,13 +25986,13 @@
         <v>83</v>
       </c>
       <c r="AQ173" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AR173" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AS173" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AT173" t="s" s="2">
         <v>83</v>
@@ -25996,10 +26000,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -26126,10 +26130,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -26254,13 +26258,13 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>83</v>
@@ -26282,13 +26286,13 @@
         <v>83</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -26386,10 +26390,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -26516,10 +26520,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -26648,13 +26652,13 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="B179" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="B179" t="s" s="2">
-        <v>781</v>
-      </c>
       <c r="C179" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>83</v>
@@ -26757,7 +26761,7 @@
         <v>83</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>83</v>
@@ -26780,10 +26784,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -26910,10 +26914,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -27040,10 +27044,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -27083,7 +27087,7 @@
       </c>
       <c r="Q182" s="2"/>
       <c r="R182" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="S182" t="s" s="2">
         <v>83</v>
@@ -27172,10 +27176,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -27235,7 +27239,7 @@
       </c>
       <c r="Y183" s="2"/>
       <c r="Z183" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>83</v>
@@ -27300,13 +27304,13 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D184" t="s" s="2">
         <v>83</v>
@@ -27409,7 +27413,7 @@
         <v>83</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>83</v>
@@ -27432,10 +27436,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -27562,10 +27566,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -27692,10 +27696,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -27735,7 +27739,7 @@
       </c>
       <c r="Q187" s="2"/>
       <c r="R187" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="S187" t="s" s="2">
         <v>83</v>
@@ -27824,10 +27828,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -27887,7 +27891,7 @@
       </c>
       <c r="Y188" s="2"/>
       <c r="Z188" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>83</v>
@@ -27952,13 +27956,13 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>83</v>
@@ -28061,7 +28065,7 @@
         <v>83</v>
       </c>
       <c r="AN189" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AO189" t="s" s="2">
         <v>83</v>
@@ -28084,10 +28088,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -28214,10 +28218,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -28344,10 +28348,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -28387,7 +28391,7 @@
       </c>
       <c r="Q192" s="2"/>
       <c r="R192" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>83</v>
@@ -28476,10 +28480,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -28539,7 +28543,7 @@
       </c>
       <c r="Y193" s="2"/>
       <c r="Z193" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>83</v>
@@ -28604,10 +28608,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -28647,7 +28651,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>83</v>
@@ -28736,10 +28740,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -28866,14 +28870,14 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" t="s" s="2">
@@ -28895,10 +28899,10 @@
         <v>121</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N196" t="s" s="2">
         <v>124</v>
@@ -28953,7 +28957,7 @@
         <v>83</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>84</v>
@@ -29000,10 +29004,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -29029,14 +29033,14 @@
         <v>380</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>83</v>
@@ -29085,7 +29089,7 @@
         <v>83</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>84</v>
@@ -29121,7 +29125,7 @@
         <v>83</v>
       </c>
       <c r="AR197" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AS197" t="s" s="2">
         <v>83</v>
@@ -29132,10 +29136,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -29161,10 +29165,10 @@
         <v>243</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -29195,7 +29199,7 @@
       </c>
       <c r="Y198" s="2"/>
       <c r="Z198" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>83</v>
@@ -29213,7 +29217,7 @@
         <v>83</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>100</v>
@@ -29249,10 +29253,10 @@
         <v>83</v>
       </c>
       <c r="AR198" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AS198" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AT198" t="s" s="2">
         <v>83</v>
@@ -29260,10 +29264,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -29390,10 +29394,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -29522,10 +29526,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -29597,14 +29601,14 @@
         <v>83</v>
       </c>
       <c r="AB201" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AC201" s="2"/>
       <c r="AD201" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>416</v>
@@ -29654,13 +29658,13 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D202" t="s" s="2">
         <v>83</v>
@@ -29723,7 +29727,7 @@
       </c>
       <c r="Y202" s="2"/>
       <c r="Z202" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AA202" t="s" s="2">
         <v>83</v>
@@ -29788,13 +29792,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>83</v>
@@ -29857,7 +29861,7 @@
       </c>
       <c r="Y203" s="2"/>
       <c r="Z203" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AA203" t="s" s="2">
         <v>83</v>
@@ -29922,10 +29926,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -30056,10 +30060,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -30085,14 +30089,14 @@
         <v>263</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>83</v>
@@ -30141,7 +30145,7 @@
         <v>83</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>84</v>
@@ -30177,10 +30181,10 @@
         <v>83</v>
       </c>
       <c r="AR205" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AS205" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AT205" t="s" s="2">
         <v>83</v>
@@ -30188,10 +30192,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -30318,10 +30322,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -30450,10 +30454,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -30479,7 +30483,7 @@
         <v>270</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>272</v>
@@ -30559,7 +30563,7 @@
         <v>83</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>83</v>
@@ -30582,10 +30586,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -30611,7 +30615,7 @@
         <v>270</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>282</v>
@@ -30693,7 +30697,7 @@
         <v>83</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>83</v>
@@ -30716,10 +30720,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -30742,13 +30746,13 @@
         <v>83</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -30799,7 +30803,7 @@
         <v>83</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>84</v>
@@ -30823,7 +30827,7 @@
         <v>83</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>83</v>
@@ -30835,7 +30839,7 @@
         <v>83</v>
       </c>
       <c r="AR210" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AS210" t="s" s="2">
         <v>83</v>
@@ -30846,13 +30850,13 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>83</v>
@@ -30874,13 +30878,13 @@
         <v>83</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -30931,7 +30935,7 @@
         <v>83</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>84</v>
@@ -30964,13 +30968,13 @@
         <v>83</v>
       </c>
       <c r="AQ211" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AR211" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AS211" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AT211" t="s" s="2">
         <v>83</v>
@@ -30978,10 +30982,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -31108,10 +31112,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -31240,14 +31244,14 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
@@ -31269,10 +31273,10 @@
         <v>121</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N214" t="s" s="2">
         <v>124</v>
@@ -31327,7 +31331,7 @@
         <v>83</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>84</v>
@@ -31374,10 +31378,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -31403,14 +31407,14 @@
         <v>380</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>83</v>
@@ -31459,7 +31463,7 @@
         <v>83</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>84</v>
@@ -31495,7 +31499,7 @@
         <v>83</v>
       </c>
       <c r="AR215" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AS215" t="s" s="2">
         <v>83</v>
@@ -31506,10 +31510,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -31535,10 +31539,10 @@
         <v>243</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -31569,7 +31573,7 @@
       </c>
       <c r="Y216" s="2"/>
       <c r="Z216" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>83</v>
@@ -31587,7 +31591,7 @@
         <v>83</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>100</v>
@@ -31623,10 +31627,10 @@
         <v>83</v>
       </c>
       <c r="AR216" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AS216" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AT216" t="s" s="2">
         <v>83</v>
@@ -31634,10 +31638,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -31764,10 +31768,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -31896,10 +31900,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -31971,14 +31975,14 @@
         <v>83</v>
       </c>
       <c r="AB219" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AC219" s="2"/>
       <c r="AD219" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>416</v>
@@ -32028,13 +32032,13 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>83</v>
@@ -32059,7 +32063,7 @@
         <v>163</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M220" t="s" s="2">
         <v>413</v>
@@ -32097,7 +32101,7 @@
       </c>
       <c r="Y220" s="2"/>
       <c r="Z220" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AA220" t="s" s="2">
         <v>83</v>
@@ -32133,7 +32137,7 @@
         <v>83</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AM220" t="s" s="2">
         <v>83</v>
@@ -32162,10 +32166,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C221" t="s" s="2">
         <v>355</v>
@@ -32193,7 +32197,7 @@
         <v>163</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M221" t="s" s="2">
         <v>413</v>
@@ -32296,10 +32300,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -32430,10 +32434,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -32459,14 +32463,14 @@
         <v>263</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>83</v>
@@ -32515,7 +32519,7 @@
         <v>83</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>84</v>
@@ -32551,10 +32555,10 @@
         <v>83</v>
       </c>
       <c r="AR223" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AS223" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AT223" t="s" s="2">
         <v>83</v>
@@ -32562,10 +32566,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -32692,10 +32696,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -32824,10 +32828,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -32853,7 +32857,7 @@
         <v>270</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M226" t="s" s="2">
         <v>272</v>
@@ -32927,7 +32931,7 @@
         <v>83</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>83</v>
@@ -32956,10 +32960,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -32985,7 +32989,7 @@
         <v>270</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="M227" t="s" s="2">
         <v>282</v>
@@ -33061,7 +33065,7 @@
         <v>83</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>83</v>
@@ -33090,10 +33094,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -33119,10 +33123,10 @@
         <v>494</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
@@ -33173,7 +33177,7 @@
         <v>83</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>84</v>
@@ -33209,7 +33213,7 @@
         <v>83</v>
       </c>
       <c r="AR228" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AS228" t="s" s="2">
         <v>83</v>
@@ -33220,13 +33224,13 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>83</v>
@@ -33248,13 +33252,13 @@
         <v>83</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -33305,7 +33309,7 @@
         <v>83</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>84</v>
@@ -33338,13 +33342,13 @@
         <v>83</v>
       </c>
       <c r="AQ229" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AR229" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AS229" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AT229" t="s" s="2">
         <v>83</v>
@@ -33352,10 +33356,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -33482,10 +33486,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -33614,14 +33618,14 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" t="s" s="2">
@@ -33643,10 +33647,10 @@
         <v>121</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N232" t="s" s="2">
         <v>124</v>
@@ -33701,7 +33705,7 @@
         <v>83</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>84</v>
@@ -33748,10 +33752,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -33777,14 +33781,14 @@
         <v>380</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>83</v>
@@ -33833,7 +33837,7 @@
         <v>83</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>84</v>
@@ -33869,7 +33873,7 @@
         <v>83</v>
       </c>
       <c r="AR233" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AS233" t="s" s="2">
         <v>83</v>
@@ -33880,10 +33884,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -33909,10 +33913,10 @@
         <v>243</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -33943,7 +33947,7 @@
       </c>
       <c r="Y234" s="2"/>
       <c r="Z234" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AA234" t="s" s="2">
         <v>83</v>
@@ -33961,7 +33965,7 @@
         <v>83</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>100</v>
@@ -33976,7 +33980,7 @@
         <v>112</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AL234" t="s" s="2">
         <v>83</v>
@@ -33997,10 +34001,10 @@
         <v>83</v>
       </c>
       <c r="AR234" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AS234" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AT234" t="s" s="2">
         <v>83</v>
@@ -34008,10 +34012,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -34138,10 +34142,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -34270,10 +34274,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -34345,7 +34349,7 @@
         <v>83</v>
       </c>
       <c r="AB237" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AC237" s="2"/>
       <c r="AD237" t="s" s="2">
@@ -34402,13 +34406,13 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D238" t="s" s="2">
         <v>83</v>
@@ -34433,7 +34437,7 @@
         <v>163</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="M238" t="s" s="2">
         <v>413</v>
@@ -34471,7 +34475,7 @@
       </c>
       <c r="Y238" s="2"/>
       <c r="Z238" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AA238" t="s" s="2">
         <v>83</v>
@@ -34536,13 +34540,13 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D239" t="s" s="2">
         <v>83</v>
@@ -34567,7 +34571,7 @@
         <v>163</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="M239" t="s" s="2">
         <v>413</v>
@@ -34605,7 +34609,7 @@
       </c>
       <c r="Y239" s="2"/>
       <c r="Z239" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AA239" t="s" s="2">
         <v>83</v>
@@ -34670,10 +34674,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -34804,10 +34808,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -34833,14 +34837,14 @@
         <v>263</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>83</v>
@@ -34889,7 +34893,7 @@
         <v>83</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>84</v>
@@ -34925,10 +34929,10 @@
         <v>83</v>
       </c>
       <c r="AR241" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AS241" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AT241" t="s" s="2">
         <v>83</v>
@@ -34936,10 +34940,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -35066,10 +35070,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -35198,10 +35202,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -35227,7 +35231,7 @@
         <v>270</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M244" t="s" s="2">
         <v>272</v>
@@ -35298,7 +35302,7 @@
         <v>112</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AL244" t="s" s="2">
         <v>83</v>
@@ -35330,10 +35334,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -35359,7 +35363,7 @@
         <v>270</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="M245" t="s" s="2">
         <v>282</v>
@@ -35432,7 +35436,7 @@
         <v>112</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AL245" t="s" s="2">
         <v>83</v>
@@ -35464,10 +35468,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -35493,10 +35497,10 @@
         <v>494</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -35547,7 +35551,7 @@
         <v>83</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>84</v>
@@ -35583,7 +35587,7 @@
         <v>83</v>
       </c>
       <c r="AR246" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AS246" t="s" s="2">
         <v>83</v>
@@ -35594,10 +35598,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -35620,19 +35624,19 @@
         <v>83</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="P247" t="s" s="2">
         <v>83</v>
@@ -35661,7 +35665,7 @@
       </c>
       <c r="Y247" s="2"/>
       <c r="Z247" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>83</v>
@@ -35679,7 +35683,7 @@
         <v>83</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>84</v>
@@ -35712,10 +35716,10 @@
         <v>83</v>
       </c>
       <c r="AQ247" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AR247" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AS247" t="s" s="2">
         <v>83</v>
